--- a/DB_LTPAQ.xlsx
+++ b/DB_LTPAQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Articulo metodologia matlab code LTPAQ\MATLAB CODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coral\Documents\Universidad_2\Articulos\1. Articulo metodologia matlab code LTPAQ\LTPAQ_MATLAB_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F42B514-7B4C-4AFB-8188-93A877EABB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D413E1CB-05CF-4BAA-81E8-6A51A21BF30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D108D6D6-0CE9-471C-8A9C-1603DE324682}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D108D6D6-0CE9-471C-8A9C-1603DE324682}"/>
   </bookViews>
   <sheets>
     <sheet name="DB_OC_VO" sheetId="1" r:id="rId1"/>
@@ -2875,7 +2875,7 @@
     <t>House cleaning</t>
   </si>
   <si>
-    <t>assess damage to crops/walking in the field</t>
+    <t>Assess damage to crops/walking in the field</t>
   </si>
 </sst>
 </file>
@@ -3236,7 +3236,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -3534,11 +3534,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176A2466-0391-4461-B0D7-3EB1638F9733}">
   <dimension ref="A1:XF19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="FG3" sqref="FG3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.6640625" style="6" bestFit="1" customWidth="1"/>
@@ -6053,16 +6053,13 @@
         <v>917</v>
       </c>
       <c r="H2" s="5">
-        <v>112</v>
-      </c>
-      <c r="I2" s="5">
-        <v>111</v>
+        <v>21020</v>
       </c>
       <c r="K2" s="5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L2" s="5">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M2" s="5">
         <v>9</v>
@@ -6111,7 +6108,7 @@
         <v>928</v>
       </c>
       <c r="AU2" s="5">
-        <v>104</v>
+        <v>9065</v>
       </c>
       <c r="AX2" s="5">
         <v>18</v>
@@ -6168,10 +6165,10 @@
         <v>932</v>
       </c>
       <c r="CH2" s="5">
-        <v>127</v>
+        <v>17100</v>
       </c>
       <c r="CI2" s="5">
-        <v>19</v>
+        <v>5185</v>
       </c>
       <c r="CK2" s="5">
         <v>20</v>
@@ -6226,10 +6223,10 @@
         <v>938</v>
       </c>
       <c r="DU2" s="5">
-        <v>97</v>
+        <v>11600</v>
       </c>
       <c r="DV2" s="5">
-        <v>114</v>
+        <v>11792</v>
       </c>
       <c r="DX2" s="5">
         <v>19</v>
@@ -6284,13 +6281,13 @@
         <v>937</v>
       </c>
       <c r="FH2" s="5">
-        <v>114</v>
+        <v>11792</v>
       </c>
       <c r="FI2" s="5">
-        <v>97</v>
+        <v>11600</v>
       </c>
       <c r="FJ2" s="5">
-        <v>93</v>
+        <v>11582</v>
       </c>
       <c r="FK2" s="5">
         <v>23</v>
@@ -6345,13 +6342,13 @@
         <v>937</v>
       </c>
       <c r="GU2" s="5">
-        <v>114</v>
+        <v>11792</v>
       </c>
       <c r="GV2" s="5">
-        <v>97</v>
+        <v>11600</v>
       </c>
       <c r="GW2" s="5">
-        <v>93</v>
+        <v>11582</v>
       </c>
       <c r="GX2" s="5">
         <v>28</v>
@@ -6382,7 +6379,7 @@
         <v>940</v>
       </c>
       <c r="IH2" s="5">
-        <v>93</v>
+        <v>11580</v>
       </c>
       <c r="IK2" s="5">
         <v>42</v>
@@ -6413,7 +6410,7 @@
         <v>942</v>
       </c>
       <c r="JU2" s="5">
-        <v>25</v>
+        <v>5025</v>
       </c>
       <c r="JX2" s="5">
         <v>46</v>
@@ -6469,13 +6466,10 @@
         <v>918</v>
       </c>
       <c r="H3" s="5">
-        <v>35</v>
-      </c>
-      <c r="I3" s="5">
-        <v>58</v>
+        <v>11170</v>
       </c>
       <c r="K3" s="5">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L3" s="5">
         <v>18</v>
@@ -6503,10 +6497,10 @@
         <v>929</v>
       </c>
       <c r="AU3" s="5">
-        <v>94</v>
+        <v>11830</v>
       </c>
       <c r="AV3" s="5">
-        <v>114</v>
+        <v>16050</v>
       </c>
       <c r="AX3" s="5">
         <v>20</v>
@@ -6539,10 +6533,7 @@
         <v>933</v>
       </c>
       <c r="CH3" s="5">
-        <v>93</v>
-      </c>
-      <c r="CI3" s="5">
-        <v>122</v>
+        <v>11580</v>
       </c>
       <c r="CK3" s="5">
         <v>28</v>
@@ -6573,7 +6564,7 @@
         <v>943</v>
       </c>
       <c r="DU3" s="5">
-        <v>113</v>
+        <v>11795</v>
       </c>
       <c r="DX3" s="5">
         <v>28</v>
@@ -6707,7 +6698,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.6640625" style="6" bestFit="1" customWidth="1"/>
@@ -8378,11 +8369,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD75814C-CC23-4E81-A40F-05574EA828BC}">
   <dimension ref="A1:XE4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.6640625" customWidth="1"/>
@@ -9588,7 +9579,7 @@
         <v>925</v>
       </c>
       <c r="AA2" s="5">
-        <v>147</v>
+        <v>18240</v>
       </c>
       <c r="AB2" s="5">
         <v>30</v>
@@ -9616,7 +9607,7 @@
         <v>927</v>
       </c>
       <c r="AK2" s="5">
-        <v>73</v>
+        <v>2061</v>
       </c>
       <c r="AL2" s="5">
         <v>41</v>
@@ -10134,7 +10125,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
@@ -10226,6 +10217,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="3f70a776-2e9a-414b-8f3c-2e6759b05395" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b31a9ec8-b2ee-41e6-99e2-1fd04a31d508">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -10234,7 +10236,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E97EB23AF20F4D42ACFAE0E66E4854CB" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="52fb79b9a61fb4ac97e259024e3cda9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b31a9ec8-b2ee-41e6-99e2-1fd04a31d508" xmlns:ns3="3f70a776-2e9a-414b-8f3c-2e6759b05395" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="181fd99cd830dad882b68efbd8f9c191" ns2:_="" ns3:_="">
     <xsd:import namespace="b31a9ec8-b2ee-41e6-99e2-1fd04a31d508"/>
@@ -10457,18 +10459,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="3f70a776-2e9a-414b-8f3c-2e6759b05395" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b31a9ec8-b2ee-41e6-99e2-1fd04a31d508">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10CEBAAC-32A3-4EBC-8531-F24BAB3F95B1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3f70a776-2e9a-414b-8f3c-2e6759b05395"/>
+    <ds:schemaRef ds:uri="b31a9ec8-b2ee-41e6-99e2-1fd04a31d508"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94A55266-AB59-4F90-A0CF-65FF32377120}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -10476,7 +10478,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CA092AF-1D3B-4340-9778-B54FFE3034F4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10493,15 +10495,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10CEBAAC-32A3-4EBC-8531-F24BAB3F95B1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3f70a776-2e9a-414b-8f3c-2e6759b05395"/>
-    <ds:schemaRef ds:uri="b31a9ec8-b2ee-41e6-99e2-1fd04a31d508"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DB_LTPAQ.xlsx
+++ b/DB_LTPAQ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coral\Documents\Universidad_2\Articulos\1. Articulo metodologia matlab code LTPAQ\LTPAQ_MATLAB_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D413E1CB-05CF-4BAA-81E8-6A51A21BF30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA012AF-6613-4E11-969B-4107E09C50DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D108D6D6-0CE9-471C-8A9C-1603DE324682}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{D108D6D6-0CE9-471C-8A9C-1603DE324682}"/>
   </bookViews>
   <sheets>
     <sheet name="DB_OC_VO" sheetId="1" r:id="rId1"/>
@@ -3100,7 +3100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3212,6 +3212,18 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3535,7 +3547,7 @@
   <dimension ref="A1:XF19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="FG3" sqref="FG3"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6695,7 +6707,7 @@
   <dimension ref="A1:XE19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8367,1143 +8379,680 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD75814C-CC23-4E81-A40F-05574EA828BC}">
-  <dimension ref="A1:XE4"/>
+  <dimension ref="A1:FI4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="44.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="33.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="32.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="44.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="35.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="35.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="36.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="34.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="33.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="31.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="30.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="31.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="32.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="44.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="35.77734375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="35.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="36.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="34.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="33.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="31.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="30.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="31.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="32.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="44.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="35.77734375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="35.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="19.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="36.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="34.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="33.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="31.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="30.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="31.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="32.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="44.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="35.77734375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="35.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="19.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="36.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="34.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="33.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="31.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="30.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="31.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="32.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="44.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="35.77734375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="35.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="19.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="36.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="34.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="33.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="31.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="30.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="31.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="32.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="44.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="35.77734375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="35.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="19.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="36.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="34.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="33.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="31.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="30.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="31.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="32.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="44.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="35.77734375" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="35.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="19.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="36.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="34.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="33.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="31.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="30.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="31.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="32.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="95" max="95" width="44.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="37.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="21.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="37.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="35.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="34.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="32.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="31.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="32.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="33.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="105" max="105" width="44.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="37.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="21.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="37.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="35.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="34.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="32.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="31.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="32.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="33.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="44.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="37.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="21.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="37.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="35.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="34.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="32.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="31.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="32.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="33.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="125" max="125" width="44.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="37.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="21.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="37.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="35.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="34.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="32.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="31.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="32.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="33.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="135" max="135" width="44.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="37.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="21.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="37.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="35.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="34.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="32.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="31.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="32.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="33.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="145" max="145" width="44.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="37.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="21.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="37.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="35.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="34.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="32.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="31.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="32.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="33.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="155" max="155" width="44.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="37.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="21.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="37.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="35.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="34.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="32.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="31.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="32.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="33.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="165" max="165" width="44.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="166" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:629" s="31" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:165" s="31" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="33" t="s">
         <v>688</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="33" t="s">
         <v>848</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="33" t="s">
         <v>689</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="33" t="s">
         <v>690</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="33" t="s">
         <v>691</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="33" t="s">
         <v>692</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="33" t="s">
         <v>693</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="33" t="s">
         <v>694</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="34" t="s">
         <v>695</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="33" t="s">
         <v>696</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="33" t="s">
         <v>697</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="33" t="s">
         <v>849</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="33" t="s">
         <v>698</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="33" t="s">
         <v>699</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="33" t="s">
         <v>700</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="33" t="s">
         <v>701</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="33" t="s">
         <v>702</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="34" t="s">
         <v>703</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="33" t="s">
         <v>704</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="33" t="s">
         <v>705</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="33" t="s">
         <v>706</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="33" t="s">
         <v>850</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="33" t="s">
         <v>707</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="33" t="s">
         <v>708</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="33" t="s">
         <v>709</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="33" t="s">
         <v>710</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="34" t="s">
         <v>711</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="33" t="s">
         <v>712</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="33" t="s">
         <v>713</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="33" t="s">
         <v>714</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="33" t="s">
         <v>715</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="33" t="s">
         <v>851</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="33" t="s">
         <v>716</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="33" t="s">
         <v>717</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="33" t="s">
         <v>718</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="34" t="s">
         <v>719</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="33" t="s">
         <v>720</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="33" t="s">
         <v>722</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="33" t="s">
         <v>724</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="33" t="s">
         <v>852</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="33" t="s">
         <v>725</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="33" t="s">
         <v>726</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" s="34" t="s">
         <v>727</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="33" t="s">
         <v>728</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="33" t="s">
         <v>729</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="33" t="s">
         <v>730</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="33" t="s">
         <v>732</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" s="33" t="s">
         <v>733</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" s="33" t="s">
         <v>853</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" s="33" t="s">
         <v>734</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BG1" s="34" t="s">
         <v>735</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="33" t="s">
         <v>736</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" s="33" t="s">
         <v>737</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" s="33" t="s">
         <v>738</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" s="33" t="s">
         <v>739</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" s="33" t="s">
         <v>740</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" s="33" t="s">
         <v>741</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BN1" s="33" t="s">
         <v>742</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BO1" s="33" t="s">
         <v>854</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BP1" s="34" t="s">
         <v>743</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BQ1" s="33" t="s">
         <v>744</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BR1" s="33" t="s">
         <v>745</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BS1" s="33" t="s">
         <v>746</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BT1" s="33" t="s">
         <v>747</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BU1" s="33" t="s">
         <v>748</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BV1" s="33" t="s">
         <v>749</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BW1" s="33" t="s">
         <v>750</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BX1" s="33" t="s">
         <v>751</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BY1" s="33" t="s">
         <v>855</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="BZ1" s="33" t="s">
         <v>752</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CA1" s="33" t="s">
         <v>753</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CB1" s="33" t="s">
         <v>754</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CC1" s="33" t="s">
         <v>755</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CD1" s="33" t="s">
         <v>756</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CE1" s="33" t="s">
         <v>757</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CF1" s="35" t="s">
         <v>758</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CG1" s="33" t="s">
         <v>759</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CH1" s="34" t="s">
         <v>760</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CI1" s="33" t="s">
         <v>856</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CJ1" s="33" t="s">
         <v>761</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CK1" s="33" t="s">
         <v>762</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CL1" s="33" t="s">
         <v>763</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CM1" s="33" t="s">
         <v>764</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CN1" s="33" t="s">
         <v>765</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CO1" s="33" t="s">
         <v>766</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CP1" s="33" t="s">
         <v>767</v>
       </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="CQ1" s="34" t="s">
         <v>768</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CR1" s="33" t="s">
         <v>769</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CS1" s="33" t="s">
         <v>857</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CT1" s="33" t="s">
         <v>770</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CU1" s="33" t="s">
         <v>771</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CV1" s="33" t="s">
         <v>772</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CW1" s="33" t="s">
         <v>773</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CX1" s="33" t="s">
         <v>774</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CY1" s="33" t="s">
         <v>775</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="CZ1" s="33" t="s">
         <v>776</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DA1" s="33" t="s">
         <v>777</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DB1" s="33" t="s">
         <v>778</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DC1" s="33" t="s">
         <v>858</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DD1" s="33" t="s">
         <v>779</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DE1" s="33" t="s">
         <v>780</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DF1" s="33" t="s">
         <v>781</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DG1" s="33" t="s">
         <v>782</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DH1" s="33" t="s">
         <v>783</v>
       </c>
-      <c r="DI1" s="2" t="s">
+      <c r="DI1" s="34" t="s">
         <v>784</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DJ1" s="33" t="s">
         <v>785</v>
       </c>
-      <c r="DK1" s="30" t="s">
+      <c r="DK1" s="36" t="s">
         <v>786</v>
       </c>
-      <c r="DL1" s="30" t="s">
+      <c r="DL1" s="36" t="s">
         <v>787</v>
       </c>
-      <c r="DM1" s="30" t="s">
+      <c r="DM1" s="36" t="s">
         <v>859</v>
       </c>
-      <c r="DN1" s="30" t="s">
+      <c r="DN1" s="36" t="s">
         <v>788</v>
       </c>
-      <c r="DO1" s="30" t="s">
+      <c r="DO1" s="36" t="s">
         <v>789</v>
       </c>
-      <c r="DP1" s="30" t="s">
+      <c r="DP1" s="36" t="s">
         <v>790</v>
       </c>
-      <c r="DQ1" s="30" t="s">
+      <c r="DQ1" s="36" t="s">
         <v>791</v>
       </c>
-      <c r="DR1" s="30" t="s">
+      <c r="DR1" s="36" t="s">
         <v>792</v>
       </c>
-      <c r="DS1" s="30" t="s">
+      <c r="DS1" s="36" t="s">
         <v>793</v>
       </c>
-      <c r="DT1" s="30" t="s">
+      <c r="DT1" s="36" t="s">
         <v>794</v>
       </c>
-      <c r="DU1" s="30" t="s">
+      <c r="DU1" s="36" t="s">
         <v>795</v>
       </c>
-      <c r="DV1" s="30" t="s">
+      <c r="DV1" s="36" t="s">
         <v>796</v>
       </c>
-      <c r="DW1" s="30" t="s">
+      <c r="DW1" s="36" t="s">
         <v>860</v>
       </c>
-      <c r="DX1" s="30" t="s">
+      <c r="DX1" s="36" t="s">
         <v>797</v>
       </c>
-      <c r="DY1" s="30" t="s">
+      <c r="DY1" s="36" t="s">
         <v>798</v>
       </c>
-      <c r="DZ1" s="30" t="s">
+      <c r="DZ1" s="36" t="s">
         <v>799</v>
       </c>
-      <c r="EA1" s="30" t="s">
+      <c r="EA1" s="36" t="s">
         <v>800</v>
       </c>
-      <c r="EB1" s="30" t="s">
+      <c r="EB1" s="36" t="s">
         <v>801</v>
       </c>
-      <c r="EC1" s="30" t="s">
+      <c r="EC1" s="36" t="s">
         <v>802</v>
       </c>
-      <c r="ED1" s="30" t="s">
+      <c r="ED1" s="36" t="s">
         <v>803</v>
       </c>
-      <c r="EE1" s="30" t="s">
+      <c r="EE1" s="36" t="s">
         <v>804</v>
       </c>
-      <c r="EF1" s="30" t="s">
+      <c r="EF1" s="36" t="s">
         <v>805</v>
       </c>
-      <c r="EG1" s="30" t="s">
+      <c r="EG1" s="36" t="s">
         <v>861</v>
       </c>
-      <c r="EH1" s="30" t="s">
+      <c r="EH1" s="36" t="s">
         <v>806</v>
       </c>
-      <c r="EI1" s="30" t="s">
+      <c r="EI1" s="36" t="s">
         <v>807</v>
       </c>
-      <c r="EJ1" s="30" t="s">
+      <c r="EJ1" s="36" t="s">
         <v>808</v>
       </c>
-      <c r="EK1" s="30" t="s">
+      <c r="EK1" s="36" t="s">
         <v>809</v>
       </c>
-      <c r="EL1" s="30" t="s">
+      <c r="EL1" s="36" t="s">
         <v>810</v>
       </c>
-      <c r="EM1" s="30" t="s">
+      <c r="EM1" s="36" t="s">
         <v>811</v>
       </c>
-      <c r="EN1" s="30" t="s">
+      <c r="EN1" s="36" t="s">
         <v>812</v>
       </c>
-      <c r="EO1" s="30" t="s">
+      <c r="EO1" s="36" t="s">
         <v>813</v>
       </c>
-      <c r="EP1" s="30" t="s">
+      <c r="EP1" s="36" t="s">
         <v>814</v>
       </c>
-      <c r="EQ1" s="30" t="s">
+      <c r="EQ1" s="36" t="s">
         <v>862</v>
       </c>
-      <c r="ER1" s="30" t="s">
+      <c r="ER1" s="36" t="s">
         <v>815</v>
       </c>
-      <c r="ES1" s="30" t="s">
+      <c r="ES1" s="36" t="s">
         <v>816</v>
       </c>
-      <c r="ET1" s="30" t="s">
+      <c r="ET1" s="36" t="s">
         <v>817</v>
       </c>
-      <c r="EU1" s="30" t="s">
+      <c r="EU1" s="36" t="s">
         <v>818</v>
       </c>
-      <c r="EV1" s="30" t="s">
+      <c r="EV1" s="36" t="s">
         <v>819</v>
       </c>
-      <c r="EW1" s="30" t="s">
+      <c r="EW1" s="36" t="s">
         <v>820</v>
       </c>
-      <c r="EX1" s="30" t="s">
+      <c r="EX1" s="36" t="s">
         <v>821</v>
       </c>
-      <c r="EY1" s="30" t="s">
+      <c r="EY1" s="36" t="s">
         <v>822</v>
       </c>
-      <c r="EZ1" s="30" t="s">
+      <c r="EZ1" s="36" t="s">
         <v>823</v>
       </c>
-      <c r="FA1" s="30" t="s">
+      <c r="FA1" s="36" t="s">
         <v>863</v>
       </c>
-      <c r="FB1" s="30" t="s">
+      <c r="FB1" s="36" t="s">
         <v>824</v>
       </c>
-      <c r="FC1" s="30" t="s">
+      <c r="FC1" s="36" t="s">
         <v>825</v>
       </c>
-      <c r="FD1" s="30" t="s">
+      <c r="FD1" s="36" t="s">
         <v>826</v>
       </c>
-      <c r="FE1" s="30" t="s">
+      <c r="FE1" s="36" t="s">
         <v>827</v>
       </c>
-      <c r="FF1" s="30" t="s">
+      <c r="FF1" s="36" t="s">
         <v>828</v>
       </c>
-      <c r="FG1" s="30" t="s">
+      <c r="FG1" s="36" t="s">
         <v>829</v>
       </c>
-      <c r="FH1" s="30" t="s">
+      <c r="FH1" s="36" t="s">
         <v>830</v>
       </c>
-      <c r="FI1" s="30" t="s">
+      <c r="FI1" s="36" t="s">
         <v>831</v>
       </c>
-      <c r="FJ1" s="30"/>
-      <c r="FK1" s="30"/>
-      <c r="FL1" s="30"/>
-      <c r="FM1" s="30"/>
-      <c r="FN1" s="30"/>
-      <c r="FO1" s="30"/>
-      <c r="FP1" s="30"/>
-      <c r="FQ1" s="30"/>
-      <c r="FR1" s="30"/>
-      <c r="FS1" s="30"/>
-      <c r="FT1" s="30"/>
-      <c r="FU1" s="30"/>
-      <c r="FV1" s="30"/>
-      <c r="FW1" s="30"/>
-      <c r="FX1" s="30"/>
-      <c r="FY1" s="30"/>
-      <c r="FZ1" s="30"/>
-      <c r="GA1" s="30"/>
-      <c r="GB1" s="30"/>
-      <c r="GC1" s="30"/>
-      <c r="GD1" s="30"/>
-      <c r="GE1" s="30"/>
-      <c r="GF1" s="30"/>
-      <c r="GG1" s="30"/>
-      <c r="GH1" s="30"/>
-      <c r="GI1" s="30"/>
-      <c r="GJ1" s="30"/>
-      <c r="GK1" s="30"/>
-      <c r="GL1" s="30"/>
-      <c r="GM1" s="30"/>
-      <c r="GN1" s="30"/>
-      <c r="GO1" s="30"/>
-      <c r="GP1" s="30"/>
-      <c r="GQ1" s="30"/>
-      <c r="GR1" s="30"/>
-      <c r="GS1" s="30"/>
-      <c r="GT1" s="30"/>
-      <c r="GU1" s="30"/>
-      <c r="GV1" s="30"/>
-      <c r="GW1" s="30"/>
-      <c r="GX1" s="30"/>
-      <c r="GY1" s="30"/>
-      <c r="GZ1" s="30"/>
-      <c r="HA1" s="30"/>
-      <c r="HB1" s="30"/>
-      <c r="HC1" s="30"/>
-      <c r="HD1" s="30"/>
-      <c r="HE1" s="30"/>
-      <c r="HF1" s="30"/>
-      <c r="HG1" s="30"/>
-      <c r="HH1" s="30"/>
-      <c r="HI1" s="30"/>
-      <c r="HJ1" s="30"/>
-      <c r="HK1" s="30"/>
-      <c r="HL1" s="30"/>
-      <c r="HM1" s="30"/>
-      <c r="HN1" s="30"/>
-      <c r="HO1" s="30"/>
-      <c r="HP1" s="30"/>
-      <c r="HQ1" s="30"/>
-      <c r="HR1" s="30"/>
-      <c r="HS1" s="30"/>
-      <c r="HT1" s="30"/>
-      <c r="HU1" s="30"/>
-      <c r="HV1" s="30"/>
-      <c r="HW1" s="30"/>
-      <c r="HX1" s="30"/>
-      <c r="HY1" s="30"/>
-      <c r="HZ1" s="30"/>
-      <c r="IA1" s="30"/>
-      <c r="IB1" s="30"/>
-      <c r="IC1" s="30"/>
-      <c r="ID1" s="30"/>
-      <c r="IE1" s="30"/>
-      <c r="IF1" s="30"/>
-      <c r="IG1" s="30"/>
-      <c r="IH1" s="30"/>
-      <c r="II1" s="30"/>
-      <c r="IJ1" s="30"/>
-      <c r="IK1" s="30"/>
-      <c r="IL1" s="30"/>
-      <c r="IM1" s="30"/>
-      <c r="IN1" s="30"/>
-      <c r="IO1" s="30"/>
-      <c r="IP1" s="30"/>
-      <c r="IQ1" s="30"/>
-      <c r="IR1" s="30"/>
-      <c r="IS1" s="30"/>
-      <c r="IT1" s="30"/>
-      <c r="IU1" s="30"/>
-      <c r="IV1" s="30"/>
-      <c r="IW1" s="30"/>
-      <c r="IX1" s="30"/>
-      <c r="IY1" s="30"/>
-      <c r="IZ1" s="30"/>
-      <c r="JA1" s="30"/>
-      <c r="JB1" s="30"/>
-      <c r="JC1" s="30"/>
-      <c r="JD1" s="30"/>
-      <c r="JE1" s="30"/>
-      <c r="JF1" s="30"/>
-      <c r="JG1" s="30"/>
-      <c r="JH1" s="30"/>
-      <c r="JI1" s="30"/>
-      <c r="JJ1" s="30"/>
-      <c r="JK1" s="30"/>
-      <c r="JL1" s="30"/>
-      <c r="JM1" s="30"/>
-      <c r="JN1" s="30"/>
-      <c r="JO1" s="30"/>
-      <c r="JP1" s="30"/>
-      <c r="JQ1" s="30"/>
-      <c r="JR1" s="30"/>
-      <c r="JS1" s="30"/>
-      <c r="JT1" s="30"/>
-      <c r="JU1" s="30"/>
-      <c r="JV1" s="30"/>
-      <c r="JW1" s="30"/>
-      <c r="JX1" s="30"/>
-      <c r="JY1" s="30"/>
-      <c r="JZ1" s="30"/>
-      <c r="KA1" s="30"/>
-      <c r="KB1" s="30"/>
-      <c r="KC1" s="30"/>
-      <c r="KD1" s="30"/>
-      <c r="KE1" s="30"/>
-      <c r="KF1" s="30"/>
-      <c r="KG1" s="30"/>
-      <c r="KH1" s="30"/>
-      <c r="KI1" s="30"/>
-      <c r="KJ1" s="30"/>
-      <c r="KK1" s="30"/>
-      <c r="KL1" s="30"/>
-      <c r="KM1" s="30"/>
-      <c r="KN1" s="30"/>
-      <c r="KO1" s="30"/>
-      <c r="KP1" s="30"/>
-      <c r="KQ1" s="30"/>
-      <c r="KR1" s="30"/>
-      <c r="KS1" s="30"/>
-      <c r="KT1" s="30"/>
-      <c r="KU1" s="30"/>
-      <c r="KV1" s="30"/>
-      <c r="KW1" s="30"/>
-      <c r="KX1" s="30"/>
-      <c r="KY1" s="30"/>
-      <c r="KZ1" s="30"/>
-      <c r="LA1" s="30"/>
-      <c r="LB1" s="30"/>
-      <c r="LC1" s="30"/>
-      <c r="LD1" s="30"/>
-      <c r="LE1" s="30"/>
-      <c r="LF1" s="30"/>
-      <c r="LG1" s="30"/>
-      <c r="LH1" s="30"/>
-      <c r="LI1" s="30"/>
-      <c r="LJ1" s="30"/>
-      <c r="LK1" s="30"/>
-      <c r="LL1" s="30"/>
-      <c r="LM1" s="30"/>
-      <c r="LN1" s="30"/>
-      <c r="LO1" s="30"/>
-      <c r="LP1" s="30"/>
-      <c r="LQ1" s="30"/>
-      <c r="LR1" s="30"/>
-      <c r="LS1" s="30"/>
-      <c r="LT1" s="30"/>
-      <c r="LU1" s="30"/>
-      <c r="LV1" s="30"/>
-      <c r="LW1" s="30"/>
-      <c r="LX1" s="30"/>
-      <c r="LY1" s="30"/>
-      <c r="LZ1" s="30"/>
-      <c r="MA1" s="30"/>
-      <c r="MB1" s="30"/>
-      <c r="MC1" s="30"/>
-      <c r="MD1" s="30"/>
-      <c r="ME1" s="30"/>
-      <c r="MF1" s="30"/>
-      <c r="MG1" s="30"/>
-      <c r="MH1" s="30"/>
-      <c r="MI1" s="30"/>
-      <c r="MJ1" s="30"/>
-      <c r="MK1" s="30"/>
-      <c r="ML1" s="30"/>
-      <c r="MM1" s="30"/>
-      <c r="MN1" s="30"/>
-      <c r="MO1" s="30"/>
-      <c r="MP1" s="30"/>
-      <c r="MQ1" s="30"/>
-      <c r="MR1" s="30"/>
-      <c r="MS1" s="30"/>
-      <c r="MT1" s="30"/>
-      <c r="MU1" s="30"/>
-      <c r="MV1" s="30"/>
-      <c r="MW1" s="30"/>
-      <c r="MX1" s="30"/>
-      <c r="MY1" s="30"/>
-      <c r="MZ1" s="30"/>
-      <c r="NA1" s="30"/>
-      <c r="NB1" s="30"/>
-      <c r="NC1" s="30"/>
-      <c r="ND1" s="30"/>
-      <c r="NE1" s="30"/>
-      <c r="NF1" s="30"/>
-      <c r="NG1" s="30"/>
-      <c r="NH1" s="30"/>
-      <c r="NI1" s="30"/>
-      <c r="NJ1" s="30"/>
-      <c r="NK1" s="30"/>
-      <c r="NL1" s="30"/>
-      <c r="NM1" s="30"/>
-      <c r="NN1" s="30"/>
-      <c r="NO1" s="30"/>
-      <c r="NP1" s="30"/>
-      <c r="NQ1" s="30"/>
-      <c r="NR1" s="30"/>
-      <c r="NS1" s="30"/>
-      <c r="NT1" s="30"/>
-      <c r="NU1" s="30"/>
-      <c r="NV1" s="30"/>
-      <c r="NW1" s="30"/>
-      <c r="NX1" s="30"/>
-      <c r="NY1" s="30"/>
-      <c r="NZ1" s="30"/>
-      <c r="OA1" s="30"/>
-      <c r="OB1" s="30"/>
-      <c r="OC1" s="30"/>
-      <c r="OD1" s="30"/>
-      <c r="OE1" s="30"/>
-      <c r="OF1" s="30"/>
-      <c r="OG1" s="30"/>
-      <c r="OH1" s="30"/>
-      <c r="OI1" s="30"/>
-      <c r="OJ1" s="30"/>
-      <c r="OK1" s="30"/>
-      <c r="OL1" s="30"/>
-      <c r="OM1" s="30"/>
-      <c r="ON1" s="30"/>
-      <c r="OO1" s="30"/>
-      <c r="OP1" s="30"/>
-      <c r="OQ1" s="30"/>
-      <c r="OR1" s="30"/>
-      <c r="OS1" s="30"/>
-      <c r="OT1" s="30"/>
-      <c r="OU1" s="30"/>
-      <c r="OV1" s="30"/>
-      <c r="OW1" s="30"/>
-      <c r="OX1" s="30"/>
-      <c r="OY1" s="30"/>
-      <c r="OZ1" s="30"/>
-      <c r="PA1" s="30"/>
-      <c r="PB1" s="30"/>
-      <c r="PC1" s="30"/>
-      <c r="PD1" s="30"/>
-      <c r="PE1" s="30"/>
-      <c r="PF1" s="30"/>
-      <c r="PG1" s="30"/>
-      <c r="PH1" s="30"/>
-      <c r="PI1" s="30"/>
-      <c r="PJ1" s="30"/>
-      <c r="PK1" s="30"/>
-      <c r="PL1" s="30"/>
-      <c r="PM1" s="30"/>
-      <c r="PN1" s="30"/>
-      <c r="PO1" s="30"/>
-      <c r="PP1" s="30"/>
-      <c r="PQ1" s="30"/>
-      <c r="PR1" s="30"/>
-      <c r="PS1" s="30"/>
-      <c r="PT1" s="30"/>
-      <c r="PU1" s="30"/>
-      <c r="PV1" s="30"/>
-      <c r="PW1" s="30"/>
-      <c r="PX1" s="30"/>
-      <c r="PY1" s="30"/>
-      <c r="PZ1" s="30"/>
-      <c r="QA1" s="30"/>
-      <c r="QB1" s="30"/>
-      <c r="QC1" s="30"/>
-      <c r="QD1" s="30"/>
-      <c r="QE1" s="30"/>
-      <c r="QF1" s="30"/>
-      <c r="QG1" s="30"/>
-      <c r="QH1" s="30"/>
-      <c r="QI1" s="30"/>
-      <c r="QJ1" s="30"/>
-      <c r="QK1" s="30"/>
-      <c r="QL1" s="30"/>
-      <c r="QM1" s="30"/>
-      <c r="QN1" s="30"/>
-      <c r="QO1" s="30"/>
-      <c r="QP1" s="30"/>
-      <c r="QQ1" s="30"/>
-      <c r="QR1" s="30"/>
-      <c r="QS1" s="30"/>
-      <c r="QT1" s="30"/>
-      <c r="QU1" s="30"/>
-      <c r="QV1" s="30"/>
-      <c r="QW1" s="30"/>
-      <c r="QX1" s="30"/>
-      <c r="QY1" s="30"/>
-      <c r="QZ1" s="30"/>
-      <c r="RA1" s="30"/>
-      <c r="RB1" s="30"/>
-      <c r="RC1" s="30"/>
-      <c r="RD1" s="30"/>
-      <c r="RE1" s="30"/>
-      <c r="RF1" s="30"/>
-      <c r="RG1" s="30"/>
-      <c r="RH1" s="30"/>
-      <c r="RI1" s="30"/>
-      <c r="RJ1" s="30"/>
-      <c r="RK1" s="30"/>
-      <c r="RL1" s="30"/>
-      <c r="RM1" s="30"/>
-      <c r="RN1" s="30"/>
-      <c r="RO1" s="30"/>
-      <c r="RP1" s="30"/>
-      <c r="RQ1" s="30"/>
-      <c r="RR1" s="30"/>
-      <c r="RS1" s="30"/>
-      <c r="RT1" s="30"/>
-      <c r="RU1" s="30"/>
-      <c r="RV1" s="30"/>
-      <c r="RW1" s="30"/>
-      <c r="RX1" s="30"/>
-      <c r="RY1" s="30"/>
-      <c r="RZ1" s="30"/>
-      <c r="SA1" s="30"/>
-      <c r="SB1" s="30"/>
-      <c r="SC1" s="30"/>
-      <c r="SD1" s="30"/>
-      <c r="SE1" s="30"/>
-      <c r="SF1" s="30"/>
-      <c r="SG1" s="30"/>
-      <c r="SH1" s="30"/>
-      <c r="SI1" s="30"/>
-      <c r="SJ1" s="30"/>
-      <c r="SK1" s="30"/>
-      <c r="SL1" s="30"/>
-      <c r="SM1" s="30"/>
-      <c r="SN1" s="30"/>
-      <c r="SO1" s="30"/>
-      <c r="SP1" s="30"/>
-      <c r="SQ1" s="30"/>
-      <c r="SR1" s="30"/>
-      <c r="SS1" s="30"/>
-      <c r="ST1" s="30"/>
-      <c r="SU1" s="30"/>
-      <c r="SV1" s="30"/>
-      <c r="SW1" s="30"/>
-      <c r="SX1" s="30"/>
-      <c r="SY1" s="30"/>
-      <c r="SZ1" s="30"/>
-      <c r="TA1" s="30"/>
-      <c r="TB1" s="30"/>
-      <c r="TC1" s="30"/>
-      <c r="TD1" s="30"/>
-      <c r="TE1" s="30"/>
-      <c r="TF1" s="30"/>
-      <c r="TG1" s="30"/>
-      <c r="TH1" s="30"/>
-      <c r="TI1" s="30"/>
-      <c r="TJ1" s="30"/>
-      <c r="TK1" s="30"/>
-      <c r="TL1" s="30"/>
-      <c r="TM1" s="30"/>
-      <c r="TN1" s="30"/>
-      <c r="TO1" s="30"/>
-      <c r="TP1" s="30"/>
-      <c r="TQ1" s="30"/>
-      <c r="TR1" s="30"/>
-      <c r="TS1" s="30"/>
-      <c r="TT1" s="30"/>
-      <c r="TU1" s="30"/>
-      <c r="TV1" s="30"/>
-      <c r="TW1" s="30"/>
-      <c r="TX1" s="30"/>
-      <c r="TY1" s="30"/>
-      <c r="TZ1" s="30"/>
-      <c r="UA1" s="30"/>
-      <c r="UB1" s="30"/>
-      <c r="UC1" s="30"/>
-      <c r="UD1" s="30"/>
-      <c r="UE1" s="30"/>
-      <c r="UF1" s="30"/>
-      <c r="UG1" s="30"/>
-      <c r="UH1" s="30"/>
-      <c r="UI1" s="30"/>
-      <c r="UJ1" s="30"/>
-      <c r="UK1" s="30"/>
-      <c r="UL1" s="30"/>
-      <c r="UM1" s="30"/>
-      <c r="UN1" s="30"/>
-      <c r="UO1" s="30"/>
-      <c r="UP1" s="30"/>
-      <c r="UQ1" s="30"/>
-      <c r="UR1" s="30"/>
-      <c r="US1" s="30"/>
-      <c r="UT1" s="30"/>
-      <c r="UU1" s="30"/>
-      <c r="UV1" s="30"/>
-      <c r="UW1" s="30"/>
-      <c r="UX1" s="30"/>
-      <c r="UY1" s="30"/>
-      <c r="UZ1" s="30"/>
-      <c r="VA1" s="30"/>
-      <c r="VB1" s="30"/>
-      <c r="VC1" s="30"/>
-      <c r="VD1" s="30"/>
-      <c r="VE1" s="30"/>
-      <c r="VF1" s="30"/>
-      <c r="VG1" s="30"/>
-      <c r="VH1" s="30"/>
-      <c r="VI1" s="30"/>
-      <c r="VJ1" s="30"/>
-      <c r="VK1" s="30"/>
-      <c r="VL1" s="30"/>
-      <c r="VM1" s="30"/>
-      <c r="VN1" s="30"/>
-      <c r="VO1" s="30"/>
-      <c r="VP1" s="30"/>
-      <c r="VQ1" s="30"/>
-      <c r="VR1" s="30"/>
-      <c r="VS1" s="30"/>
-      <c r="VT1" s="30"/>
-      <c r="VU1" s="30"/>
-      <c r="VV1" s="30"/>
-      <c r="VW1" s="30"/>
-      <c r="VX1" s="30"/>
-      <c r="VY1" s="30"/>
-      <c r="VZ1" s="30"/>
-      <c r="WA1" s="30"/>
-      <c r="WB1" s="30"/>
-      <c r="WC1" s="30"/>
-      <c r="WD1" s="30"/>
-      <c r="WE1" s="30"/>
-      <c r="WF1" s="30"/>
-      <c r="WG1" s="30"/>
-      <c r="WH1" s="30"/>
-      <c r="WI1" s="30"/>
-      <c r="WJ1" s="30"/>
-      <c r="WK1" s="30"/>
-      <c r="WL1" s="30"/>
-      <c r="WM1" s="30"/>
-      <c r="WN1" s="30"/>
-      <c r="WO1" s="30"/>
-      <c r="WP1" s="30"/>
-      <c r="WQ1" s="30"/>
-      <c r="WR1" s="30"/>
-      <c r="WS1" s="30"/>
-      <c r="WT1" s="30"/>
-      <c r="WU1" s="30"/>
-      <c r="WV1" s="30"/>
-      <c r="WW1" s="30"/>
-      <c r="WX1" s="30"/>
-      <c r="WY1" s="30"/>
-      <c r="WZ1" s="30"/>
-      <c r="XA1" s="30"/>
-      <c r="XB1" s="30"/>
-      <c r="XC1" s="30"/>
-      <c r="XD1" s="30"/>
-      <c r="XE1" s="30"/>
     </row>
-    <row r="2" spans="1:629" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:165" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>921</v>
       </c>
@@ -9740,7 +9289,7 @@
       <c r="FG2" s="5"/>
       <c r="FH2" s="5"/>
     </row>
-    <row r="3" spans="1:629" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>922</v>
       </c>
@@ -9958,7 +9507,7 @@
       <c r="FG3" s="5"/>
       <c r="FH3" s="5"/>
     </row>
-    <row r="4" spans="1:629" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:165" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
       <c r="B4" s="5"/>
       <c r="C4" s="15"/>
@@ -10109,7 +9658,7 @@
       <c r="FH4" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8RDvEe02U+b6mRY8g46mRdSlCfdGnBgyC887D3YMBFMAhGdixMEgs3PTanf6mDtVjea2ibAuoM79E647YEvLTA==" saltValue="dMYKKCgIXlmHRhbZ/sa4jw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZI3+Na/XuGxM4wShwFKiKTOP1zNUn50ildEf2DQbZHpJGR8CntwmKe4r6435tRLGnBIOH2PMiRHnPSTmspQjQA==" saltValue="4fULMeOjnoAlryI6HYWY5Q==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="VmzkjdK/6Wwh2adrhIIwHUUINbmCkLzGjzDrW4h0qFQPkD5z8cOf3cdfsRGGmyEp2oDRcj4LRWMxwruV3fiRnA==" saltValue="Xjne0pFaHB6E/7gqQr8pXA==" spinCount="100000" sqref="A1:FI1" name="Range3"/>
   </protectedRanges>
@@ -10217,6 +9766,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="3f70a776-2e9a-414b-8f3c-2e6759b05395" xsi:nil="true"/>
@@ -10225,15 +9783,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10460,20 +10009,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94A55266-AB59-4F90-A0CF-65FF32377120}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10CEBAAC-32A3-4EBC-8531-F24BAB3F95B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="3f70a776-2e9a-414b-8f3c-2e6759b05395"/>
     <ds:schemaRef ds:uri="b31a9ec8-b2ee-41e6-99e2-1fd04a31d508"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94A55266-AB59-4F90-A0CF-65FF32377120}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
